--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.444889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.444889</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036320354.408025</v>
+        <v>43089572.80655621</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9227.932371213581</v>
+        <v>1039679.139845365</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17247.06287992367</v>
+        <v>1889758.642069866</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25266.19338863376</v>
+        <v>2739838.144294369</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33308.4643932116</v>
+        <v>3589917.646518871</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41350.73539778945</v>
+        <v>4439997.148743372</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49393.0064023673</v>
+        <v>5290076.650967874</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57435.27740694514</v>
+        <v>6140156.153192372</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65477.54841152299</v>
+        <v>6990235.65541687</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73519.81941610083</v>
+        <v>7840315.157641368</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81562.09042067865</v>
+        <v>8690394.659865867</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89604.36142525644</v>
+        <v>9540474.16209037</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97646.63242983427</v>
+        <v>10390553.66431488</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105688.9034344121</v>
+        <v>11240633.16653939</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113731.1744389899</v>
+        <v>12090712.66876389</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121773.4454435677</v>
+        <v>12940792.1709884</v>
       </c>
     </row>
   </sheetData>
